--- a/BackTest/2020-01-13 BackTest IPX.xlsx
+++ b/BackTest/2020-01-13 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16711.035684909</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>16557.726884909</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>16623.726884909</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>16733.726884909</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>16777.726884909</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>16511.726884909</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>16533.726884909</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>16511.726884909</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>16599.726884909</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>38047.30469999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>38047.30469999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>24297.37089999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>23097.94469999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>23097.94469999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>24319.79949999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>24319.79949999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>23343.36239999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>24546.06919999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>23646.79359999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>25395.64839999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>24419.21129999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>25310.04279999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>21741.35859999999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>23669.30159999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>24867.56799999999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>24867.56799999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>23046.11399999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>23046.11399999999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>23719.07209999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>22395.15589999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>23068.11399999999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>20856.57409999999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>20856.57409999999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>20874.49929999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>16621.87839999999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>18212.09459999999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>20354.57579999999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>20864.16099999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>17354.61209999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>18085.54579999999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>21111.50499999999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>21111.50499999999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>20786.02599999999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>20786.02599999999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>20786.02599999999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>21111.50499999999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>19580.244</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>19580.244</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>19580.244</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>19580.244</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>20767.0033</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>20767.0033</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>19486.04129999999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>19486.04129999999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>20043.51749999999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>18191.872</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>18191.872</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>18191.872</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>19076.74259999999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>18177.3878</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>10727.7491</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>9811.926099999997</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>9811.926099999997</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>11722.9616</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>12614.9211</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>11869.0575</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>11869.0575</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>13129.3338</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>13129.3338</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>14576.4886</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>12134.5906</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>12134.5906</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>12134.5906</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>12134.5906</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>12134.5906</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>13820.9896</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>12726.95</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>12726.95</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>13758.4737</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>13758.4737</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>13758.4737</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>13247.5096</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>13898.4677</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>12513.4027</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>12513.4027</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>12513.4027</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>12513.4027</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>12513.4027</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-45309.69040000001</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-43905.48050000001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-44289.58530000001</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-43555.99000000001</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-45547.2631</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-43944.0092</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-45832.2987</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-44891.8074</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-45668.2463</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-43518.3656</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-46588.18369999999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-46588.18369999999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-47605.90229999999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-46748.3028</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-47703.6502</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-47703.6502</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-47703.6502</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-47052.69209999999</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-45858.54109999999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-45858.54109999999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-45858.54109999999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-119656.3622621631</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-118470.4712621631</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -27544,17 +27544,11 @@
         <v>-204933.0007621632</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27587,11 +27581,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27624,11 +27614,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27661,11 +27647,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27698,11 +27680,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27735,11 +27713,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27768,17 +27742,11 @@
         <v>-210905.9775621632</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27807,17 +27775,11 @@
         <v>-210905.9775621632</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27846,17 +27808,11 @@
         <v>-210905.9775621632</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27885,17 +27841,11 @@
         <v>-210905.9775621632</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27924,17 +27874,11 @@
         <v>-211010.3575621632</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27963,17 +27907,11 @@
         <v>-210856.3575621632</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>43.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28002,15 +27940,15 @@
         <v>-210856.3575621632</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="J835" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28044,10 +27982,12 @@
       <c r="I836" t="n">
         <v>43.8</v>
       </c>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>43.8</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L836" t="n">
@@ -28081,10 +28021,12 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>43.8</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L837" t="n">
@@ -28119,11 +28061,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28156,11 +28094,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28193,11 +28127,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28230,11 +28160,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28267,11 +28193,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28304,11 +28226,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28341,11 +28259,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28378,11 +28292,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28415,11 +28325,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28452,11 +28358,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28489,11 +28391,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28526,11 +28424,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28563,11 +28457,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28600,11 +28490,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28637,11 +28523,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28674,11 +28556,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28711,11 +28589,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28748,11 +28622,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28785,11 +28655,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28822,11 +28688,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28859,11 +28721,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28896,11 +28754,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28933,11 +28787,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28970,11 +28820,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29007,11 +28853,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29044,11 +28886,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29081,11 +28919,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29118,11 +28952,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29155,11 +28985,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29192,11 +29018,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29229,11 +29051,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29266,11 +29084,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29303,11 +29117,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29340,11 +29150,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29377,11 +29183,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29414,11 +29216,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29451,11 +29249,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29488,11 +29282,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29525,11 +29315,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29562,11 +29348,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29599,11 +29381,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29632,17 +29410,11 @@
         <v>-203610.8623621631</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29671,17 +29443,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29710,17 +29476,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
-      </c>
-      <c r="I881" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29749,17 +29509,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29788,17 +29542,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29827,17 +29575,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29866,17 +29608,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29905,17 +29641,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29944,17 +29674,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29983,17 +29707,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30022,17 +29740,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30061,17 +29773,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30104,11 +29810,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30137,17 +29839,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30176,17 +29872,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30215,17 +29905,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30254,17 +29938,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30293,17 +29971,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30332,17 +30004,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30371,17 +30037,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30410,17 +30070,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30449,17 +30103,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30488,17 +30136,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30527,17 +30169,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30566,17 +30202,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30605,17 +30235,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30644,17 +30268,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30683,17 +30301,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30722,17 +30334,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30766,12 +30372,10 @@
       <c r="I908" t="n">
         <v>43.8</v>
       </c>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J908" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30805,10 +30409,12 @@
       <c r="I909" t="n">
         <v>43.8</v>
       </c>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>43.8</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L909" t="n">
@@ -30844,10 +30450,12 @@
       <c r="I910" t="n">
         <v>43.8</v>
       </c>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>43.8</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L910" t="n">
@@ -30883,12 +30491,10 @@
       <c r="I911" t="n">
         <v>43.8</v>
       </c>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J911" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30917,13 +30523,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="J912" t="n">
+        <v>43.8</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L912" t="n">
@@ -30954,13 +30564,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="J913" t="n">
+        <v>43.8</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L913" t="n">
@@ -30991,15 +30605,15 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="J914" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31031,10 +30645,12 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>43.8</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L915" t="n">
@@ -31068,10 +30684,12 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>43.8</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L916" t="n">
@@ -31106,11 +30724,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31139,17 +30753,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31182,11 +30790,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31215,17 +30819,11 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31258,17 +30856,13 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
       <c r="M921" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest IPX.xlsx
+++ b/BackTest/2020-01-13 BackTest IPX.xlsx
@@ -451,7 +451,7 @@
         <v>16711.035684909</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>16557.726884909</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>16623.726884909</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>16733.726884909</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>16777.726884909</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>16777.726884909</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>16777.726884909</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>16511.726884909</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>16533.726884909</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>16511.726884909</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>16599.726884909</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>38047.30469999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>38047.30469999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>25395.64839999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>24419.21129999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>25310.04279999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>24410.45429999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>24780.82729999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>24780.82729999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>24780.82729999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>25652.05879999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>25652.05879999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>25652.05879999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>24466.71189999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>25465.14899999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>24119.23279999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>24119.23279999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>24119.23279999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>24466.71179999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>24814.19079999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>24814.19079999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>24814.19079999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>23282.89049999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>23282.89049999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>23282.89049999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>21741.35859999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>21741.35859999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>21741.35859999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>23669.30159999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>21930.69059999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>24867.56799999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>24867.56799999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>23046.11399999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>23046.11399999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>23719.07209999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>22395.15589999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>23068.11399999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>20856.57409999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>20856.57409999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>20874.49929999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>19111.60439999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>16621.87839999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>18212.09459999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>20354.57579999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>20864.16099999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>17354.61209999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>16454.23579999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>18085.54579999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>18543.02479999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>18868.50379999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>18868.50379999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>17892.06669999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>20000.70489999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>21111.50499999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>21111.50499999999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>20786.02599999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>20786.02599999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>19580.244</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>19580.244</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>19580.244</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>19580.244</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>20767.0033</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>20767.0033</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>19254.0684</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>19486.04129999999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>19486.04129999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>20043.51749999999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>18191.872</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>18191.872</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>18191.872</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>19076.74259999999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>18177.3878</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>10727.7491</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>9811.926099999997</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>9811.926099999997</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>11722.9616</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>12614.9211</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>11869.0575</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>11869.0575</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>13129.3338</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>12134.5906</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-119656.3622621631</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-118470.4712621631</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -27940,14 +27940,10 @@
         <v>-210856.3575621632</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="J835" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
@@ -27977,19 +27973,11 @@
         <v>-210911.8158621632</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="J836" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28021,14 +28009,8 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29311,11 +29293,17 @@
         <v>-203285.3833621631</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29344,11 +29332,17 @@
         <v>-203610.8623621631</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29377,11 +29371,17 @@
         <v>-203610.8623621631</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29410,11 +29410,17 @@
         <v>-203610.8623621631</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29443,11 +29449,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29476,11 +29488,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29509,11 +29527,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29542,11 +29566,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29575,11 +29605,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29608,11 +29644,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29641,11 +29683,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29674,11 +29722,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29707,11 +29761,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29740,11 +29800,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29773,11 +29839,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29806,11 +29878,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29839,11 +29917,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29872,11 +29956,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29905,11 +29995,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29938,11 +30034,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29971,11 +30073,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30004,11 +30112,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30037,11 +30151,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30074,7 +30194,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30103,11 +30227,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30136,11 +30266,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30169,11 +30305,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30202,11 +30344,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30235,11 +30383,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30268,11 +30422,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30301,11 +30461,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30334,11 +30500,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30372,10 +30544,12 @@
       <c r="I908" t="n">
         <v>43.8</v>
       </c>
-      <c r="J908" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30409,12 +30583,10 @@
       <c r="I909" t="n">
         <v>43.8</v>
       </c>
-      <c r="J909" t="n">
-        <v>43.8</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L909" t="n">
@@ -30450,12 +30622,10 @@
       <c r="I910" t="n">
         <v>43.8</v>
       </c>
-      <c r="J910" t="n">
-        <v>43.8</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L910" t="n">
@@ -30491,10 +30661,12 @@
       <c r="I911" t="n">
         <v>43.8</v>
       </c>
-      <c r="J911" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30528,12 +30700,10 @@
       <c r="I912" t="n">
         <v>43.8</v>
       </c>
-      <c r="J912" t="n">
-        <v>43.8</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L912" t="n">
@@ -30569,12 +30739,10 @@
       <c r="I913" t="n">
         <v>43.8</v>
       </c>
-      <c r="J913" t="n">
-        <v>43.8</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L913" t="n">
@@ -30610,10 +30778,12 @@
       <c r="I914" t="n">
         <v>43.8</v>
       </c>
-      <c r="J914" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30642,15 +30812,15 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
         <v>43.8</v>
       </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L915" t="n">
@@ -30681,15 +30851,15 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
         <v>43.8</v>
       </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L916" t="n">
@@ -30720,11 +30890,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30753,11 +30929,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30786,11 +30968,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30819,11 +31007,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30852,11 +31046,17 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
